--- a/phschemaexplorer/events/test/test.xlsx
+++ b/phschemaexplorer/events/test/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianpeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianpeng/GitHub/phlambda/phschemaexplorer/events/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A613B2-8BF9-3545-8986-FD4972EC5ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083FD5D-1EB6-4E40-89C2-157FA643E255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11880" yWindow="5900" windowWidth="27840" windowHeight="16940" xr2:uid="{75CF0B77-2A71-9646-BAFE-49C90C767B12}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>通用名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>3274102</t>
+  </si>
+  <si>
+    <t>感谢党</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢国家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢人民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -919,122 +931,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9728C5-EF70-344B-A8D2-AEB1C2BE2D08}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1042,23 +988,23 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6">
         <v>7</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1069,23 +1015,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -1096,10 +1042,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -1112,7 +1058,7 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1126,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -1139,7 +1085,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -1150,13 +1096,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
@@ -1166,7 +1112,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -1177,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -1193,7 +1139,7 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1204,23 +1150,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1231,23 +1177,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1258,23 +1204,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1285,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -1301,7 +1247,7 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1312,10 +1258,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>12</v>
@@ -1324,11 +1270,11 @@
         <v>19</v>
       </c>
       <c r="F15" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1339,23 +1285,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F16" s="6">
         <v>10</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1369,20 +1315,20 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F17" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1393,23 +1339,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="6">
         <v>7</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1420,23 +1366,23 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F19" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1447,10 +1393,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>12</v>
@@ -1459,9 +1405,12 @@
         <v>13</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G20" s="6"/>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
@@ -1471,23 +1420,23 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -1498,23 +1447,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F22" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1525,50 +1474,47 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F23" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F24" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -1576,26 +1522,26 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F25" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1603,26 +1549,26 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F26" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1633,23 +1579,23 @@
         <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
@@ -1669,12 +1615,15 @@
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F28" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G28" s="6"/>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
@@ -1684,10 +1633,10 @@
         <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
@@ -1700,7 +1649,7 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -1720,14 +1669,14 @@
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F30" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -1738,24 +1687,21 @@
         <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F31" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" t="s">
-        <v>63</v>
-      </c>
       <c r="I31" t="s">
         <v>15</v>
       </c>
@@ -1765,23 +1711,23 @@
         <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F32" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -1792,21 +1738,24 @@
         <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F33" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G33" s="6"/>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
       <c r="I33" t="s">
         <v>15</v>
       </c>
@@ -1828,11 +1777,11 @@
         <v>54</v>
       </c>
       <c r="F34" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1840,26 +1789,26 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F35" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1867,53 +1816,50 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F36" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" t="s">
-        <v>73</v>
-      </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F37" s="6">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -1924,10 +1870,10 @@
         <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>12</v>
@@ -1940,9 +1886,90 @@
       </c>
       <c r="G38" s="6"/>
       <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="6">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="6">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="6">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I41" t="s">
         <v>15</v>
       </c>
     </row>

--- a/phschemaexplorer/events/test/test.xlsx
+++ b/phschemaexplorer/events/test/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianpeng/GitHub/phlambda/phschemaexplorer/events/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083FD5D-1EB6-4E40-89C2-157FA643E255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3E7FA-9250-3243-923D-4949282CD4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="5900" windowWidth="27840" windowHeight="16940" xr2:uid="{75CF0B77-2A71-9646-BAFE-49C90C767B12}"/>
+    <workbookView xWindow="-21600" yWindow="-5500" windowWidth="21600" windowHeight="18960" xr2:uid="{75CF0B77-2A71-9646-BAFE-49C90C767B12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -931,15 +931,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9728C5-EF70-344B-A8D2-AEB1C2BE2D08}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17" customHeight="1">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -954,7 +954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="17" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,54 +984,38 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -1042,23 +1026,23 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1069,10 +1053,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -1085,7 +1069,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -1096,23 +1080,23 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6">
         <v>7</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -1123,23 +1107,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6">
         <v>7</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1150,10 +1134,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>12</v>
@@ -1166,7 +1150,7 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1177,23 +1161,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6">
         <v>7</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1213,14 +1197,14 @@
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6">
         <v>7</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1243,11 +1227,11 @@
         <v>19</v>
       </c>
       <c r="F14" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1258,23 +1242,23 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1288,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -1301,7 +1285,7 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1324,11 +1308,11 @@
         <v>19</v>
       </c>
       <c r="F17" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1339,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
@@ -1351,11 +1335,11 @@
         <v>19</v>
       </c>
       <c r="F18" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1375,14 +1359,14 @@
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F19" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1393,10 +1377,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>12</v>
@@ -1405,11 +1389,11 @@
         <v>13</v>
       </c>
       <c r="F20" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -1423,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>12</v>
@@ -1436,7 +1420,7 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -1447,23 +1431,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F22" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1474,21 +1458,24 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F23" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G23" s="6"/>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
@@ -1498,24 +1485,21 @@
         <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
@@ -1525,23 +1509,23 @@
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6">
         <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="6">
-        <v>7</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1552,23 +1536,23 @@
         <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F26" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1576,26 +1560,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F27" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
@@ -1606,23 +1590,23 @@
         <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F28" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -1642,14 +1626,14 @@
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F29" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -1660,23 +1644,23 @@
         <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F30" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -1687,21 +1671,24 @@
         <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F31" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G31" s="6"/>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
       <c r="I31" t="s">
         <v>15</v>
       </c>
@@ -1711,24 +1698,21 @@
         <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F32" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" t="s">
-        <v>61</v>
-      </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
@@ -1750,11 +1734,11 @@
         <v>50</v>
       </c>
       <c r="F33" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1774,14 +1758,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F34" s="6">
         <v>10</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1792,10 +1776,10 @@
         <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>12</v>
@@ -1808,7 +1792,7 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1819,21 +1803,24 @@
         <v>47</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F36" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G36" s="6"/>
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
@@ -1843,50 +1830,47 @@
         <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F37" s="6">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" t="s">
-        <v>65</v>
-      </c>
       <c r="I37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F38" s="6">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -1897,23 +1881,23 @@
         <v>66</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F39" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
@@ -1930,7 +1914,7 @@
         <v>71</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>72</v>
@@ -1940,7 +1924,7 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -1951,25 +1935,52 @@
         <v>66</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F41" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="6">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" t="s">
         <v>77</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I42" t="s">
         <v>15</v>
       </c>
     </row>

--- a/phschemaexplorer/events/test/test.xlsx
+++ b/phschemaexplorer/events/test/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianpeng/GitHub/phlambda/phschemaexplorer/events/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F3E7FA-9250-3243-923D-4949282CD4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C209978-E2A5-DB45-B63B-09DC40FB1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-5500" windowWidth="21600" windowHeight="18960" xr2:uid="{75CF0B77-2A71-9646-BAFE-49C90C767B12}"/>
+    <workbookView xWindow="-21600" yWindow="13540" windowWidth="21600" windowHeight="18960" xr2:uid="{75CF0B77-2A71-9646-BAFE-49C90C767B12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="78">
   <si>
     <t>通用名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -520,18 +520,6 @@
   </si>
   <si>
     <t>3274102</t>
-  </si>
-  <si>
-    <t>感谢党</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢国家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢人民</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -931,91 +919,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9728C5-EF70-344B-A8D2-AEB1C2BE2D08}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1">
-      <c r="A1" t="s">
-        <v>78</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
+      <c r="G3" s="6"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6">
         <v>7</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -1026,23 +1083,23 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1053,10 +1110,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -1069,7 +1126,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -1083,7 +1140,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -1107,13 +1164,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -1123,7 +1180,7 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1134,13 +1191,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -1150,7 +1207,7 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1161,23 +1218,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1188,23 +1245,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1215,23 +1272,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1242,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>19</v>
@@ -1258,7 +1315,7 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1269,10 +1326,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -1281,11 +1338,11 @@
         <v>19</v>
       </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1296,23 +1353,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F17" s="6">
         <v>10</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1326,20 +1383,20 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1350,23 +1407,23 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1377,23 +1434,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F20" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -1404,10 +1461,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>12</v>
@@ -1416,12 +1473,9 @@
         <v>13</v>
       </c>
       <c r="F21" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
@@ -1431,23 +1485,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1458,23 +1512,23 @@
         <v>9</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -1485,47 +1539,50 @@
         <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G24" s="6"/>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F25" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1533,26 +1590,26 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F26" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1560,26 +1617,26 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
@@ -1590,23 +1647,23 @@
         <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F28" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -1626,15 +1683,12 @@
         <v>12</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F29" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
@@ -1644,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>12</v>
@@ -1660,7 +1714,7 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -1680,14 +1734,14 @@
         <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F31" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -1698,21 +1752,24 @@
         <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F32" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G32" s="6"/>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
@@ -1722,23 +1779,23 @@
         <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F33" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1749,24 +1806,21 @@
         <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" t="s">
-        <v>62</v>
-      </c>
       <c r="I34" t="s">
         <v>15</v>
       </c>
@@ -1788,11 +1842,11 @@
         <v>54</v>
       </c>
       <c r="F35" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1800,26 +1854,26 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F36" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -1827,50 +1881,53 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F37" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6"/>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
       <c r="I37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F38" s="6">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -1881,10 +1938,10 @@
         <v>66</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>12</v>
@@ -1897,90 +1954,9 @@
       </c>
       <c r="G39" s="6"/>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="6">
-        <v>14</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="6">
-        <v>14</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="6">
-        <v>7</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s">
         <v>15</v>
       </c>
     </row>
